--- a/src/excel/2020年二季度.xlsx
+++ b/src/excel/2020年二季度.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/suoweihu/Documents/GitHub/Excel-Online-App/src/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{058EA10C-40FC-E84D-B99C-B9BDCF4E714E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22FB0FC9-A1DF-DF42-A2C6-FCCAC6CE6A50}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5580" yWindow="5140" windowWidth="23940" windowHeight="10340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,24 +43,6 @@
     <t>金额</t>
   </si>
   <si>
-    <t>张三</t>
-  </si>
-  <si>
-    <t>李四</t>
-  </si>
-  <si>
-    <t>王五</t>
-  </si>
-  <si>
-    <t>2020.02.11 - 11:00:22</t>
-  </si>
-  <si>
-    <t>2020.02.11 - 11:00:23</t>
-  </si>
-  <si>
-    <t>2020.02.11 - 11:00:25</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
@@ -89,6 +71,24 @@
   </si>
   <si>
     <t>小B</t>
+  </si>
+  <si>
+    <t>李潇潇</t>
+  </si>
+  <si>
+    <t>王老五</t>
+  </si>
+  <si>
+    <t>张小三</t>
+  </si>
+  <si>
+    <t>2020.02.11 11:00:22</t>
+  </si>
+  <si>
+    <t>2020.02.11 11:00:23</t>
+  </si>
+  <si>
+    <t>2020.02.11 11:00:25</t>
   </si>
 </sst>
 </file>
@@ -414,7 +414,7 @@
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5:J6"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -464,7 +464,7 @@
         <v>213123</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
@@ -475,28 +475,28 @@
         <v>123123</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H3" s="1">
         <v>321</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
@@ -507,25 +507,25 @@
         <v>123123</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="H4" s="1">
         <v>123</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
@@ -536,10 +536,10 @@
         <v>123123</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H5" s="1">
         <v>123</v>
@@ -553,25 +553,25 @@
         <v>1231231</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
